--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_ecoli_D50_R50_Pentropia_I0.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_ecoli_D50_R50_Pentropia_I0.xlsx
@@ -623,7 +623,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[175, 196, 5, 173, 127, 79, 121]</t>
+          <t>[175, 196, 5, 173, 127, 79, 80]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -633,24 +633,24 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[0.610361416210729, 0.6387641959414919, 0.7343536363378614, 0.7746049964959417, 0.8390569432692897, 0.8435710900622033, 0.8621107664632314]</t>
+          <t>[0.6151535575187592, 0.6404309321984378, 0.7527913698036364, 0.7800904968969594, 0.8398590378017112, 0.8572404625301836, 0.8643939661593343]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[196, 5, 173, 127, 79, 121, 80]</t>
+          <t>[196, 5, 173, 127, 79, 80, 121]</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.6387641959414919, 0.7343536363378614, 0.7746049964959417, 0.8390569432692897, 0.8435710900622033, 0.8621107664632314, 0.8629508073342753]</t>
+          <t>[0.6404309321984378, 0.7527913698036364, 0.7800904968969594, 0.8398590378017112, 0.8572404625301836, 0.8643939661593343, 0.8646570164204255]</t>
         </is>
       </c>
       <c r="U2" t="n">
         <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8413140166657465</v>
+        <v>0.8485497501659474</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.015721</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[144, 72, 232, 139, 265, 79, 233]</t>
+          <t>[144, 72, 232, 139, 265, 233, 79]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -721,24 +721,24 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[0.4672411750844987, 0.484343143550428, 0.49252401362689624, 0.5480468043661527, 0.5852213479916469, 0.5916564613525036, 0.5943176150122738]</t>
+          <t>[0.47496819826916825, 0.5061420956421864, 0.5145704442034451, 0.5593934081746329, 0.5907934996104219, 0.6176497476569909, 0.6285880019178799]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[144, 72, 139, 265, 79, 233, 218]</t>
+          <t>[144, 72, 139, 265, 233, 79, 218]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[0.4672411750844987, 0.484343143550428, 0.5480468043661527, 0.5852213479916469, 0.5916564613525036, 0.5943176150122738, 0.7117765878155562]</t>
+          <t>[0.47496819826916825, 0.5061420956421864, 0.5593934081746329, 0.5907934996104219, 0.6176497476569909, 0.6285880019178799, 0.712086434152655]</t>
         </is>
       </c>
       <c r="U3" t="n">
         <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5884389046720753</v>
+        <v>0.6042216236337064</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.015721</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L4" t="n">
         <v>0.5916727785823274</v>
@@ -799,34 +799,34 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[0, 79, 93, 173, 152, 184, 2]</t>
+          <t>[0, 79, 93, 152, 173, 184, 72]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 1]</t>
+          <t>[1, 1, 1, 0, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[0.7343536363378614, 0.8253520746761466, 0.8263971713499464, 0.8669601791935363, 0.8705350059462028, 0.8877265901470622, 0.9507784260511827]</t>
+          <t>[0.7527913698036364, 0.834086411648757, 0.8621910533605378, 0.887219718547849, 0.8922422128223295, 0.9246073651965244, 0.9555852498731121]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[0, 79, 93, 173, 184, 2, 72]</t>
+          <t>[0, 79, 93, 173, 184, 72, 2]</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[0.7343536363378614, 0.8253520746761466, 0.8263971713499464, 0.8669601791935363, 0.8877265901470622, 0.9507784260511827, 0.9515026649293605]</t>
+          <t>[0.7527913698036364, 0.834086411648757, 0.8621910533605378, 0.8922422128223295, 0.9246073651965244, 0.9555852498731121, 0.9712494250896266]</t>
         </is>
       </c>
       <c r="U4" t="n">
         <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8791307980466325</v>
+        <v>0.908424789009427</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.015721</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L5" t="n">
         <v>0.9852281360342515</v>
@@ -887,17 +887,17 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[189, 195, 18, 201, 99, 204, 40]</t>
+          <t>[189, 195, 99, 201, 18, 204, 40]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 1, 1, 0]</t>
+          <t>[1, 1, 1, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[0.8235094669300224, 0.9259552402925781, 1.1588540213884966, 1.1760232178299912, 1.1951797157581603, 1.1993060458901301, 1.2027383565873864]</t>
+          <t>[0.8466337409387247, 0.9814860883963605, 1.2082641097458762, 1.2132241290571013, 1.216425098850246, 1.2240942780506507, 1.2398703510871014]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -907,14 +907,14 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[0.8235094669300224, 0.9259552402925781, 1.1951797157581603, 1.1993060458901301, 1.3275508386866792, 1.5091977063006687, 1.7025135794765138]</t>
+          <t>[0.8466337409387247, 0.9814860883963605, 1.2082641097458762, 1.2240942780506507, 1.3995616301348108, 1.5844933291415235, 1.7552373206468406]</t>
         </is>
       </c>
       <c r="U5" t="n">
         <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.197242880824145</v>
+        <v>1.220259688450448</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.015721</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[132, 121, 175, 73, 122, 94, 72]</t>
+          <t>[132, 121, 175, 73, 94, 122, 72]</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -985,24 +985,24 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[0.18277229686357888, 0.3752789365153362, 0.43491048303140106, 0.4554153086871318, 0.47709516412611364, 0.4906331663180268, 0.5251820176377969]</t>
+          <t>[0.19292323632052646, 0.382965788249662, 0.4385053283021172, 0.458966614759032, 0.49450453910989334, 0.5000197802240262, 0.5493958926210997]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>[132, 121, 122, 94, 72, 79, 127]</t>
+          <t>[132, 121, 94, 122, 72, 79, 127]</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[0.18277229686357888, 0.3752789365153362, 0.47709516412611364, 0.4906331663180268, 0.5251820176377969, 0.5447530122858969, 0.5498285356527424]</t>
+          <t>[0.19292323632052646, 0.382965788249662, 0.49450453910989334, 0.5000197802240262, 0.5493958926210997, 0.5522145386802149, 0.559135636071553]</t>
         </is>
       </c>
       <c r="U6" t="n">
         <v>5</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4838641652220702</v>
+        <v>0.4972621596669597</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1011,7 +1011,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.015721</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[0.21286173804405556, 0.3709974238219604, 0.4382020076897488, 0.4610059462539289, 0.5257178756940794, 0.5672450210842174, 0.6155973420054134]</t>
+          <t>[0.21443304078111106, 0.37657968023864064, 0.44166855888827006, 0.46367388917786856, 0.5441757905247957, 0.5862986770128233, 0.6586576878652755]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1083,14 +1083,14 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[0.21286173804405556, 0.3709974238219604, 0.4382020076897488, 0.5257178756940794, 0.5672450210842174, 0.6561214586808956, 0.6915580870716876]</t>
+          <t>[0.21443304078111106, 0.37657968023864064, 0.44166855888827006, 0.5441757905247957, 0.5862986770128233, 0.6675410977537132, 0.7019994180770339]</t>
         </is>
       </c>
       <c r="U7" t="n">
         <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5464814483891484</v>
+        <v>0.5652372337688095</v>
       </c>
       <c r="W7" t="n">
         <v>5</v>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.025981</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[100, 64, 163, 105, 149, 140, 228]</t>
+          <t>[100, 64, 163, 105, 140, 149, 228]</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[0.40800778813903715, 0.422334107389828, 0.4977276584015013, 0.708733986081233, 0.7686890247993353, 0.769184942989652, 0.7815709793642637]</t>
+          <t>[0.4349828846984585, 0.4440780569626893, 0.5026594241535012, 0.7243326989352031, 0.7693295435107026, 0.7696327088989122, 0.8103828987478885]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1175,14 +1175,14 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[0.7815709793642637, 0.8777001908686367, 0.9534146147809424, 0.995012012101814, 1.0048759338626432, 1.0059836358278655, 1.043953702081488]</t>
+          <t>[0.8103828987478885, 0.9087303366656283, 0.9968150129861462, 1.0473195297898352, 1.066507076490237, 1.0724194299240706, 1.1108222371322682]</t>
         </is>
       </c>
       <c r="U8" t="n">
         <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7689369838944937</v>
+        <v>0.7694811262048074</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1191,7 +1191,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.026979</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[218, 133, 17, 53, 247, 143, 265]</t>
+          <t>[218, 17, 133, 247, 53, 143, 265]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[0.38838433182150356, 0.426844870949548, 0.4382020076897488, 0.5450905934742981, 0.5582900753595698, 0.5735782381848898, 0.6062080887344358]</t>
+          <t>[0.39095401051573214, 0.44166855888827006, 0.44197788214035183, 0.5657425911008691, 0.5657652392348499, 0.5852621750318007, 0.6072419219019135]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>[218, 133, 17, 53, 247, 143, 265]</t>
+          <t>[218, 17, 133, 247, 53, 143, 265]</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[0.38838433182150356, 0.426844870949548, 0.4382020076897488, 0.5450905934742981, 0.5582900753595698, 0.5735782381848898, 0.6062080887344358]</t>
+          <t>[0.39095401051573214, 0.44166855888827006, 0.44197788214035183, 0.5657425911008691, 0.5657652392348499, 0.5852621750318007, 0.6072419219019135]</t>
         </is>
       </c>
       <c r="U9" t="n">
         <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5659341567722298</v>
+        <v>0.5755137071333253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1279,7 +1279,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.026979</t>
         </is>
       </c>
     </row>
@@ -1331,34 +1331,34 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[235, 73, 43, 131, 228, 163, 52]</t>
+          <t>[235, 73, 43, 131, 228, 52, 163]</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 1, 0, 1]</t>
+          <t>[0, 0, 0, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[0.3034718302189095, 0.355780890061871, 0.4298268421551355, 0.45332560107096037, 0.4707701001400842, 0.4741393316580485, 0.496033549679362]</t>
+          <t>[0.3103814642049055, 0.3682859978262944, 0.4440921218233171, 0.45538597269572884, 0.4761108863753461, 0.5023188522134205, 0.5041630762927459]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>[131, 228, 52, 117, 212, 94, 80]</t>
+          <t>[131, 228, 52, 212, 117, 94, 80]</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[0.45332560107096037, 0.4707701001400842, 0.496033549679362, 0.5119046302760444, 0.5158762938484103, 0.5539048483155706, 0.6020508176344974]</t>
+          <t>[0.45538597269572884, 0.4761108863753461, 0.5023188522134205, 0.5285094283492562, 0.5458063824467221, 0.5684017989949549, 0.6091852577424387]</t>
         </is>
       </c>
       <c r="U10" t="n">
         <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4724547158990663</v>
+        <v>0.4892148692943833</v>
       </c>
       <c r="W10" t="n">
         <v>4</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.026979</t>
         </is>
       </c>
     </row>
@@ -1423,34 +1423,34 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[131, 43, 48, 255, 212, 202, 97]</t>
+          <t>[131, 43, 48, 212, 255, 202, 97]</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 1, 0, 0]</t>
+          <t>[1, 0, 1, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[0.300772181670555, 0.3607952825408134, 0.496033549679362, 0.5776162630598557, 0.5827742546441335, 0.6299391632404137, 0.6390904232663386]</t>
+          <t>[0.3068319462652802, 0.37591044889509745, 0.5023188522134205, 0.589451538054015, 0.6118749054031555, 0.6303322311878704, 0.6468790362682084]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>[131, 48, 212, 94, 117, 126, 228]</t>
+          <t>[131, 48, 212, 94, 117, 228, 126]</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[0.300772181670555, 0.496033549679362, 0.5827742546441335, 0.6639052839664307, 0.6645250129594277, 0.7812160037950039, 0.8043221547290171]</t>
+          <t>[0.3068319462652802, 0.5023188522134205, 0.589451538054015, 0.6697258988990379, 0.6909888690686318, 0.816307311470062, 0.8272172534578219]</t>
         </is>
       </c>
       <c r="U11" t="n">
         <v>5</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6063567089422736</v>
+        <v>0.6211035682955129</v>
       </c>
       <c r="W11" t="n">
         <v>4</v>
@@ -1459,11 +1459,11 @@
         <v>0.449858445829775</v>
       </c>
       <c r="Y11" t="n">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.026979</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[44, 133, 247, 17, 210, 218, 230]</t>
+          <t>[133, 44, 247, 17, 210, 218, 230]</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1525,24 +1525,24 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[0.5450905934742981, 0.5566143342043189, 0.5800420025624597, 0.7442873432536898, 0.7812625915442334, 0.8113444850119196, 0.837609443740022]</t>
+          <t>[0.5592215566122907, 0.5657652392348499, 0.5919153154566646, 0.76969245558047, 0.7943349714766625, 0.8212149720946738, 0.845491958165618]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>[44, 133, 247, 17, 210, 218, 230]</t>
+          <t>[133, 44, 247, 17, 210, 218, 230]</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[0.5450905934742981, 0.5566143342043189, 0.5800420025624597, 0.7442873432536898, 0.7812625915442334, 0.8113444850119196, 0.837609443740022]</t>
+          <t>[0.5592215566122907, 0.5657652392348499, 0.5919153154566646, 0.76969245558047, 0.7943349714766625, 0.8212149720946738, 0.845491958165618]</t>
         </is>
       </c>
       <c r="U12" t="n">
         <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>0.7963035382780765</v>
+        <v>0.8077749717856681</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.027979</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[65, 94, 105, 173, 108, 93, 149]</t>
+          <t>[65, 94, 105, 173, 108, 93, 148]</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1613,24 +1613,24 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[0.6413009799452211, 0.6875355056508228, 0.726488989433943, 0.7970079966215803, 0.9517325744275554, 1.0014962846573037, 1.0123313707497807]</t>
+          <t>[0.650674465813613, 0.7043983745997187, 0.7435865367123199, 0.8195789653315282, 0.9805380394253854, 1.0206215295442342, 1.0292478004500427]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>[94, 173, 93, 12, 79, 132, 52]</t>
+          <t>[94, 173, 93, 12, 52, 132, 79]</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[0.6875355056508228, 0.7970079966215803, 1.0014962846573037, 1.0265566307416654, 1.0422317726174641, 1.0470665399764292, 1.0568540893882903]</t>
+          <t>[0.7043983745997187, 0.8195789653315282, 1.0206215295442342, 1.048597608963137, 1.064922391531469, 1.0775939304085802, 1.0836866966104124]</t>
         </is>
       </c>
       <c r="U13" t="n">
         <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9766144295424295</v>
+        <v>1.00057978448481</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1639,7 +1639,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.027979</t>
         </is>
       </c>
     </row>
@@ -1691,34 +1691,34 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[121, 79, 132, 175, 265, 2, 122]</t>
+          <t>[79, 121, 132, 265, 175, 122, 2]</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.3496393524685109, 0.35814398686594345, 0.44425881910726417, 0.45916282474291154, 0.46809466903819835, 0.484343143550428, 0.49499690774566685]</t>
+          <t>[0.36527743661689377, 0.3747343937499917, 0.4586685097622864, 0.474713081092318, 0.47863680325038155, 0.4964289475960245, 0.5061420956421864]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>[121, 79, 132, 265, 2, 122, 12]</t>
+          <t>[79, 121, 132, 265, 122, 2, 12]</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[0.3496393524685109, 0.35814398686594345, 0.44425881910726417, 0.46809466903819835, 0.484343143550428, 0.49499690774566685, 0.5251820176377969]</t>
+          <t>[0.36527743661689377, 0.3747343937499917, 0.4586685097622864, 0.474713081092318, 0.4964289475960245, 0.5061420956421864, 0.5493958926210997]</t>
         </is>
       </c>
       <c r="U14" t="n">
         <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4762189062943132</v>
+        <v>0.487532875423203</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1727,7 +1727,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.027979</t>
         </is>
       </c>
     </row>
@@ -1779,34 +1779,34 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[183, 184, 2, 144, 186, 139, 17]</t>
+          <t>[183, 184, 2, 186, 144, 139, 53]</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 1]</t>
+          <t>[1, 1, 1, 0, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.5587223573308889, 0.8088749738207938, 0.8651859341881893, 0.940547884098581, 0.946805682431276, 0.9517052704134114, 1.0468498300615812]</t>
+          <t>[0.5603953567589891, 0.8362680582799068, 0.9097964025631995, 0.9680787332225108, 0.982343776219399, 0.9852368910793989, 1.0803589192505836]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>[183, 184, 2, 144, 139, 17, 226]</t>
+          <t>[183, 184, 2, 144, 139, 53, 17]</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[0.5587223573308889, 0.8088749738207938, 0.8651859341881893, 0.940547884098581, 0.9517052704134114, 1.0468498300615812, 1.0554603874935002]</t>
+          <t>[0.5603953567589891, 0.8362680582799068, 0.9097964025631995, 0.982343776219399, 0.9852368910793989, 1.0803589192505836, 1.1140509120071846]</t>
         </is>
       </c>
       <c r="U15" t="n">
         <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>0.9492554764223438</v>
+        <v>0.9837903336493989</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.027979</t>
         </is>
       </c>
     </row>
@@ -1877,24 +1877,24 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[0.35814398686594345, 0.4070113027932198, 0.4397790003085115, 0.4608232139430562, 0.47396878522913527, 0.5013450917170513, 0.5411621547180041]</t>
+          <t>[0.36527743661689377, 0.42918053241565834, 0.44824583318651307, 0.46733362174284976, 0.47609316249561023, 0.5053506037512405, 0.542550055216679]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>[72, 173, 121, 132, 117, 12, 94]</t>
+          <t>[72, 173, 121, 132, 117, 12, 233]</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[0.35814398686594345, 0.4070113027932198, 0.4397790003085115, 0.47396878522913527, 0.5411621547180041, 0.5447530122858969, 0.5528159653353787]</t>
+          <t>[0.36527743661689377, 0.42918053241565834, 0.44824583318651307, 0.47609316249561023, 0.542550055216679, 0.5522145386802149, 0.5652713170144583]</t>
         </is>
       </c>
       <c r="U16" t="n">
         <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4876569384730933</v>
+        <v>0.4907218831234254</v>
       </c>
       <c r="W16" t="n">
         <v>2</v>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.028980</t>
         </is>
       </c>
     </row>
@@ -1969,24 +1969,24 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[0.39193938876656653, 0.5080148126115259, 0.5390132808673175, 0.5849609404384695, 0.6020508176344974, 0.6121934158670201, 0.6222221027201054]</t>
+          <t>[0.40805108997054484, 0.5112649847280869, 0.5505176725580215, 0.5980033069022015, 0.6091852577424387, 0.6216929239756005, 0.6274498245417764]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>[121, 87, 48, 127, 79, 72, 173]</t>
+          <t>[121, 87, 48, 127, 79, 173, 72]</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[0.39193938876656653, 0.5390132808673175, 0.6020508176344974, 0.6222221027201054, 0.656935286357389, 0.6672277739967957, 0.6802651643412381]</t>
+          <t>[0.40805108997054484, 0.5505176725580215, 0.6091852577424387, 0.6274498245417764, 0.6864883392939882, 0.6920476884095672, 0.7096028455288947]</t>
         </is>
       </c>
       <c r="U17" t="n">
         <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6071221167507588</v>
+        <v>0.6154390908590196</v>
       </c>
       <c r="W17" t="n">
         <v>2</v>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.028980</t>
         </is>
       </c>
     </row>
@@ -2034,13 +2034,13 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="b">
@@ -2051,34 +2051,34 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[80, 235, 121, 236, 228, 143, 127]</t>
+          <t>[80, 121, 235, 236, 228, 127, 153]</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 1, 1, 1]</t>
+          <t>[1, 1, 0, 0, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[0.5390132808673175, 0.6775617602691882, 0.6778530760562712, 0.6830220863616847, 0.7291085101463568, 0.7478043385211675, 0.7481897533753419]</t>
+          <t>[0.5505176725580215, 0.6947878941439266, 0.696225148589878, 0.7064669646624254, 0.7511474090696254, 0.7590007195263645, 0.7715810551154326]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>[80, 121, 228, 143, 127, 48, 72]</t>
+          <t>[80, 121, 228, 127, 143, 48, 72]</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[0.5390132808673175, 0.6778530760562712, 0.7291085101463568, 0.7478043385211675, 0.7481897533753419, 0.8026817042661645, 0.8425927508485196]</t>
+          <t>[0.5505176725580215, 0.6947878941439266, 0.7511474090696254, 0.7590007195263645, 0.7768270449678502, 0.8243473049848054, 0.8737268259518857]</t>
         </is>
       </c>
       <c r="U18" t="n">
         <v>5</v>
       </c>
       <c r="V18" t="n">
-        <v>0.7384564243337621</v>
+        <v>0.755074064297995</v>
       </c>
       <c r="W18" t="n">
         <v>5</v>
@@ -2087,11 +2087,11 @@
         <v>0.5424541179848884</v>
       </c>
       <c r="Y18" t="n">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.028980</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L19" t="n">
         <v>0.8631205685666311</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[65, 173, 108, 152, 148, 6, 79]</t>
+          <t>[65, 173, 108, 148, 152, 6, 79]</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[0.41039769556681854, 0.4829118325643496, 0.6394835201871025, 0.6766884895300109, 0.6776447239933276, 0.7732485652570947, 0.7992152597461645]</t>
+          <t>[0.4195896945632307, 0.48764516161175975, 0.6653412268037457, 0.6795247161174952, 0.6872133087732757, 0.8045006592821974, 0.822875100994316]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2163,14 +2163,14 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[0.4829118325643496, 0.7992152597461645, 0.8263971713499464, 0.8866410140558331, 0.9082356832667023, 0.9462973124300814, 1.0014962846573037]</t>
+          <t>[0.48764516161175975, 0.822875100994316, 0.8621910533605378, 0.8919371978656385, 0.9133520851211948, 0.950375428352546, 1.0206215295442342]</t>
         </is>
       </c>
       <c r="U19" t="n">
         <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7254466446252112</v>
+        <v>0.7458569840277365</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2179,7 +2179,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.029890</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[117, 73, 12, 173, 43, 132, 79]</t>
+          <t>[117, 73, 12, 173, 43, 132, 48]</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2241,24 +2241,24 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[0.41492855327551825, 0.45658946835195674, 0.4906331663180268, 0.5094941398027188, 0.5206536397767173, 0.5526796332242571, 0.5528159653353787]</t>
+          <t>[0.4298048854437044, 0.46146165962962116, 0.49450453910989334, 0.5115821808729377, 0.5228402045932503, 0.5642942777846194, 0.5684017989949549]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>[117, 12, 173, 132, 79, 48, 212]</t>
+          <t>[117, 12, 173, 132, 48, 212, 79]</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[0.41492855327551825, 0.4906331663180268, 0.5094941398027188, 0.5526796332242571, 0.5528159653353787, 0.5539048483155706, 0.570004668379788]</t>
+          <t>[0.4298048854437044, 0.49450453910989334, 0.5115821808729377, 0.5642942777846194, 0.5684017989949549, 0.5703838265474865, 0.5728732340901548]</t>
         </is>
       </c>
       <c r="U20" t="n">
         <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5366666365004872</v>
+        <v>0.5435672411889348</v>
       </c>
       <c r="W20" t="n">
         <v>3</v>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.030109</t>
         </is>
       </c>
     </row>
@@ -2323,34 +2323,34 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[11, 189, 183, 62, 172, 47, 195]</t>
+          <t>[11, 189, 183, 62, 47, 195, 172]</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 1, 0, 1]</t>
+          <t>[1, 1, 1, 0, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[1.1951797157581603, 1.312394619241736, 1.3495343090381515, 1.5413601509825923, 1.622294913574774, 1.6435389385445929, 1.647604906549781]</t>
+          <t>[1.2082641097458762, 1.3219540469820086, 1.3708493536306872, 1.5759194831593248, 1.6720603547666912, 1.6946735133992439, 1.6991839062193002]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>[11, 189, 183, 172, 195, 218, 144]</t>
+          <t>[11, 189, 183, 195, 172, 218, 144]</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[1.1951797157581603, 1.312394619241736, 1.3495343090381515, 1.622294913574774, 1.647604906549781, 1.6949545947315252, 1.7529123304349818]</t>
+          <t>[1.2082641097458762, 1.3219540469820086, 1.3708493536306872, 1.6946735133992439, 1.6991839062193002, 1.7542015273183795, 1.8094425716881397]</t>
         </is>
       </c>
       <c r="U21" t="n">
         <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.632916926059683</v>
+        <v>1.683366934082968</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.030109</t>
         </is>
       </c>
     </row>
@@ -2411,34 +2411,34 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[180, 184, 5, 183, 2, 68, 78]</t>
+          <t>[180, 184, 5, 183, 2, 78, 68]</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 1, 1, 0, 1]</t>
+          <t>[0, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[1.3152132928643867, 1.3280296343066595, 1.337002669259708, 1.514517829083569, 1.5349098001699015, 1.5779944621095778, 1.6504378963961528]</t>
+          <t>[1.3362057888367698, 1.3453238067980031, 1.4157326070019844, 1.5167572906920663, 1.5637372696931777, 1.6533035365433908, 1.6756713366895468]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>[184, 5, 183, 2, 78, 208, 0]</t>
+          <t>[184, 5, 183, 2, 78, 208, 72]</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[1.3280296343066595, 1.337002669259708, 1.514517829083569, 1.5349098001699015, 1.6504378963961528, 1.6854048155740906, 1.704280795244925]</t>
+          <t>[1.3453238067980031, 1.4157326070019844, 1.5167572906920663, 1.5637372696931777, 1.6533035365433908, 1.7246611107525762, 1.7990293825151877]</t>
         </is>
       </c>
       <c r="U22" t="n">
         <v>5</v>
       </c>
       <c r="V22" t="n">
-        <v>1.55645213113974</v>
+        <v>1.608520403118284</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.030622</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[230, 192, 252, 133, 120, 218, 247]</t>
+          <t>[230, 252, 192, 133, 218, 247, 120]</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2509,24 +2509,24 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[0.6050685899198321, 0.6651678118517115, 0.6776445358220735, 0.7853089822808305, 0.8377005181533059, 0.8442177790002489, 0.8603127364190305]</t>
+          <t>[0.6140279712250841, 0.6795245197738405, 0.7019417851786818, 0.78914694479563, 0.8464188213056317, 0.8662635332632745, 0.884486613361603]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>[230, 192, 252, 133, 120, 218, 247]</t>
+          <t>[230, 252, 192, 133, 218, 247, 120]</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[0.6050685899198321, 0.6651678118517115, 0.6776445358220735, 0.7853089822808305, 0.8377005181533059, 0.8442177790002489, 0.8603127364190305]</t>
+          <t>[0.6140279712250841, 0.6795245197738405, 0.7019417851786818, 0.78914694479563, 0.8464188213056317, 0.8662635332632745, 0.884486613361603]</t>
         </is>
       </c>
       <c r="U23" t="n">
         <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>0.8409591485767773</v>
+        <v>0.8563411772844531</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.030622</t>
         </is>
       </c>
     </row>
@@ -2587,34 +2587,34 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[233, 73, 43, 94, 232, 235, 143]</t>
+          <t>[233, 73, 43, 94, 232, 143, 235]</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 1]</t>
+          <t>[1, 0, 0, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[0.3177318165866338, 0.3448436932618146, 0.37353226951390994, 0.41492855327551825, 0.44060290201548663, 0.48155831906048946, 0.4850331267747474]</t>
+          <t>[0.3290674918494026, 0.35867942467063524, 0.3833159892365293, 0.4298048854437044, 0.45228359333075857, 0.4962254229732907, 0.5034048415791927]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>[233, 94, 143, 212, 48, 79, 121]</t>
+          <t>[233, 94, 143, 212, 79, 48, 121]</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[0.3177318165866338, 0.41492855327551825, 0.4850331267747474, 0.4949350617566031, 0.5119046302760444, 0.5411621547180041, 0.5497324961979542]</t>
+          <t>[0.3290674918494026, 0.4298048854437044, 0.4962254229732907, 0.5056711408954266, 0.542550055216679, 0.5458063824467221, 0.5540443692616148]</t>
         </is>
       </c>
       <c r="U24" t="n">
         <v>5</v>
       </c>
       <c r="V24" t="n">
-        <v>0.461080610537988</v>
+        <v>0.4742545081520246</v>
       </c>
       <c r="W24" t="n">
         <v>4</v>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.030622</t>
         </is>
       </c>
     </row>
@@ -2689,24 +2689,24 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[0.3493443537121913, 0.3708281996103717, 0.4166264900685981, 0.47019900669057246, 0.6553274584481924, 0.6784856945594405, 0.713837732942408]</t>
+          <t>[0.3524788218583419, 0.3793438790232051, 0.4183266584079032, 0.47812745500997467, 0.6574347994928691, 0.6966270332913035, 0.7334860212605949]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>[212, 192, 126, 143, 228, 117, 106]</t>
+          <t>[212, 192, 126, 143, 228, 117, 185]</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[0.4166264900685981, 0.47019900669057246, 0.6784856945594405, 0.713837732942408, 0.7646381578803068, 0.825029906595439, 0.8377005181533059]</t>
+          <t>[0.4183266584079032, 0.47812745500997467, 0.6966270332913035, 0.7334860212605949, 0.7874731966815763, 0.8276902376241736, 0.839429266248877]</t>
         </is>
       </c>
       <c r="U25" t="n">
         <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6669065765038165</v>
+        <v>0.6770309163920862</v>
       </c>
       <c r="W25" t="n">
         <v>1</v>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.030622</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[175, 72, 12, 80, 132, 127, 79]</t>
+          <t>[175, 72, 12, 80, 127, 132, 79]</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2781,24 +2781,24 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[0.3370491254786003, 0.3496393524685109, 0.3752789365153362, 0.39193938876656653, 0.4242214928183875, 0.4261343277901955, 0.4397790003085115]</t>
+          <t>[0.33768994654565676, 0.3747343937499917, 0.382965788249662, 0.40805108997054484, 0.427603834961373, 0.4351881615853863, 0.44824583318651307]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>[72, 12, 80, 132, 127, 79, 117]</t>
+          <t>[72, 12, 80, 127, 132, 79, 117]</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[0.3496393524685109, 0.3752789365153362, 0.39193938876656653, 0.4242214928183875, 0.4261343277901955, 0.4397790003085115, 0.5497324961979542]</t>
+          <t>[0.3747343937499917, 0.382965788249662, 0.40805108997054484, 0.427603834961373, 0.4351881615853863, 0.44824583318651307, 0.5540443692616148]</t>
         </is>
       </c>
       <c r="U26" t="n">
         <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4251779103042915</v>
+        <v>0.4313959982733797</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.030622</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[132, 214, 12, 72, 265, 127, 121]</t>
+          <t>[132, 214, 72, 12, 265, 127, 121]</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2869,24 +2869,24 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[0.40214825195181914, 0.4522700956677568, 0.47709516412611364, 0.49499690774566685, 0.511835017063156, 0.5473444595113665, 0.5718692037096244]</t>
+          <t>[0.4128860529472997, 0.4586685435306861, 0.4964289475960245, 0.5000197802240262, 0.5171409073105397, 0.5744713262026391, 0.5892977000455543]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>[132, 214, 12, 72, 265, 127, 121]</t>
+          <t>[132, 214, 72, 12, 265, 127, 121]</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[0.40214825195181914, 0.4522700956677568, 0.47709516412611364, 0.49499690774566685, 0.511835017063156, 0.5473444595113665, 0.5718692037096244]</t>
+          <t>[0.4128860529472997, 0.4586685435306861, 0.4964289475960245, 0.5000197802240262, 0.5171409073105397, 0.5744713262026391, 0.5892977000455543]</t>
         </is>
       </c>
       <c r="U27" t="n">
         <v>5</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5295897382872612</v>
+        <v>0.5458061167565894</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2895,7 +2895,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.030622</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[212, 133, 97, 230, 44, 120, 17]</t>
+          <t>[212, 44, 97, 230, 133, 120, 17]</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2957,24 +2957,24 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[0.6305296699119746, 0.6519408719772748, 0.6528492024892548, 0.6597257565729355, 0.6611370612176843, 0.6784856945594405, 0.6915580870716876]</t>
+          <t>[0.658599132962457, 0.6825734539849293, 0.6837407490636838, 0.6848812304188718, 0.6879595736844666, 0.6966270332913035, 0.7019994180770339]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>[212, 133, 230, 44, 120, 17, 117]</t>
+          <t>[212, 44, 230, 133, 120, 17, 117]</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[0.6305296699119746, 0.6519408719772748, 0.6597257565729355, 0.6611370612176843, 0.6784856945594405, 0.6915580870716876, 0.6933871785977858]</t>
+          <t>[0.658599132962457, 0.6825734539849293, 0.6848812304188718, 0.6879595736844666, 0.6966270332913035, 0.7019994180770339, 0.7035879325325439]</t>
         </is>
       </c>
       <c r="U28" t="n">
         <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6698113778885624</v>
+        <v>0.6922933034878851</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2983,7 +2983,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.031634</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>[175, 121, 122, 12, 132, 72, 80]</t>
+          <t>[175, 121, 12, 122, 132, 80, 72]</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -3045,24 +3045,24 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[0.4032839267437384, 0.4261343277901955, 0.5473444595113665, 0.5498285356527424, 0.5954826129697919, 0.6177335449089536, 0.6222221027201054]</t>
+          <t>[0.4066552878841717, 0.427603834961373, 0.559135636071553, 0.5744713262026391, 0.6098746424186751, 0.6274498245417764, 0.638786812609061]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>[121, 122, 12, 132, 72, 80, 87]</t>
+          <t>[121, 12, 122, 132, 80, 72, 87]</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>[0.4261343277901955, 0.5473444595113665, 0.5498285356527424, 0.5954826129697919, 0.6177335449089536, 0.6222221027201054, 0.7481897533753419]</t>
+          <t>[0.427603834961373, 0.559135636071553, 0.5744713262026391, 0.6098746424186751, 0.6274498245417764, 0.638786812609061, 0.7590007195263645]</t>
         </is>
       </c>
       <c r="U29" t="n">
         <v>5</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6066080789393727</v>
+        <v>0.6186622334802258</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.031634</t>
         </is>
       </c>
     </row>
@@ -3133,24 +3133,24 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[0.300772181670555, 0.30334463031246256, 0.45332560107096037, 0.5007733012806255, 0.5571828391907612, 0.5700280947684877, 0.6108608915571262]</t>
+          <t>[0.3068319462652802, 0.3158833290093558, 0.45538597269572884, 0.5107248067640306, 0.5638895923556346, 0.5712327772999813, 0.6137017002482641]</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>[52, 48, 117, 212, 228, 244, 94]</t>
+          <t>[52, 48, 117, 212, 228, 94, 244]</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>[0.300772181670555, 0.45332560107096037, 0.6429970882848778, 0.6784449328348183, 0.6855331996029372, 0.7495499914249298, 0.7516509963526107]</t>
+          <t>[0.3068319462652802, 0.45538597269572884, 0.6655300659030365, 0.6839636819869719, 0.691188568680648, 0.758181284060429, 0.7888385533791601]</t>
         </is>
       </c>
       <c r="U30" t="n">
         <v>5</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5636054669796244</v>
+        <v>0.5675611848278079</v>
       </c>
       <c r="W30" t="n">
         <v>4</v>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.031634</t>
         </is>
       </c>
     </row>
@@ -3225,24 +3225,24 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[0.18277229686357888, 0.40214825195181914, 0.41067677606401365, 0.4242214928183875, 0.44425881910726417, 0.47396878522913527, 0.5526796332242571]</t>
+          <t>[0.19292323632052646, 0.4128860529472997, 0.4183821444859307, 0.4351881615853863, 0.4586685097622864, 0.47609316249561023, 0.5642942777846194]</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>[12, 122, 121, 72, 79, 94, 127]</t>
+          <t>[12, 122, 121, 72, 79, 94, 117]</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>[0.18277229686357888, 0.40214825195181914, 0.4242214928183875, 0.44425881910726417, 0.47396878522913527, 0.5526796332242571, 0.5954826129697919]</t>
+          <t>[0.19292323632052646, 0.4128860529472997, 0.4351881615853863, 0.4586685097622864, 0.47609316249561023, 0.5642942777846194, 0.6044910917849554]</t>
         </is>
       </c>
       <c r="U31" t="n">
         <v>5</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4591138021681997</v>
+        <v>0.4673808361289483</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3251,7 +3251,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.031634</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[0.426844870949548, 0.4539118164541998, 0.46078203943864127, 0.5566143342043189, 0.5736934788946819, 0.605477221821555, 0.6384513065831899]</t>
+          <t>[0.44197788214035183, 0.46590297415373, 0.4662526404851085, 0.5592215566122907, 0.5875827307833502, 0.6063904136655448, 0.6404370692857475]</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3323,14 +3323,14 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[0.426844870949548, 0.4539118164541998, 0.46078203943864127, 0.5566143342043189, 0.5736934788946819, 0.605477221821555, 0.6384513065831899]</t>
+          <t>[0.44197788214035183, 0.46590297415373, 0.4662526404851085, 0.5592215566122907, 0.5875827307833502, 0.6063904136655448, 0.6404370692857475]</t>
         </is>
       </c>
       <c r="U32" t="n">
         <v>5</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5895853503581184</v>
+        <v>0.5969865722244475</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.032560</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[0.19115600639738073, 0.5144145369135803, 0.5480468043661527, 0.605477221821555, 0.6697716629007902, 0.7076574140177881, 0.7080941265087539]</t>
+          <t>[0.19756895371127578, 0.5329711500581856, 0.5593934081746329, 0.6063904136655448, 0.7028295593909106, 0.710111082590473, 0.7204398743740563]</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3411,14 +3411,14 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>[0.19115600639738073, 0.5144145369135803, 0.5480468043661527, 0.605477221821555, 0.6697716629007902, 0.7076574140177881, 0.7080941265087539]</t>
+          <t>[0.19756895371127578, 0.5329711500581856, 0.5593934081746329, 0.6063904136655448, 0.7028295593909106, 0.710111082590473, 0.7204398743740563]</t>
         </is>
       </c>
       <c r="U33" t="n">
         <v>5</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6887145384592892</v>
+        <v>0.7064703209906917</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3427,7 +3427,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.032602</t>
         </is>
       </c>
     </row>
@@ -3489,24 +3489,24 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[0.3255402906817581, 0.44925644928720576, 0.4850331267747474, 0.5330912512171628, 0.5681596678935169, 0.5735782381848898, 0.6104954317836502]</t>
+          <t>[0.34001829560092095, 0.4745794023283218, 0.4962254229732907, 0.5663422496559611, 0.5698110469304825, 0.5852621750318007, 0.6240596475118156]</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>[265, 218, 117, 72, 44, 121, 212]</t>
+          <t>[265, 218, 117, 72, 44, 121, 122]</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>[0.3255402906817581, 0.44925644928720576, 0.4850331267747474, 0.5681596678935169, 0.5735782381848898, 0.6104954317836502, 0.6183305436835028]</t>
+          <t>[0.34001829560092095, 0.4745794023283218, 0.4962254229732907, 0.5698110469304825, 0.5852621750318007, 0.6240596475118156, 0.6325324808878039]</t>
         </is>
       </c>
       <c r="U34" t="n">
         <v>5</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5708689530392034</v>
+        <v>0.5775366109811415</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.032602</t>
         </is>
       </c>
     </row>
@@ -3577,24 +3577,24 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[0.19115600639738073, 0.4672411750844987, 0.49437139122891294, 0.5436220870288061, 0.5962237883802595, 0.6384513065831899, 0.6561214586808956]</t>
+          <t>[0.19756895371127578, 0.47496819826916825, 0.5047084318749009, 0.5711679237548372, 0.6201460552946018, 0.6404370692857475, 0.6675410977537132]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>[139, 2, 265, 233, 133, 17, 72]</t>
+          <t>[139, 2, 265, 233, 133, 17, 218]</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>[0.19115600639738073, 0.4672411750844987, 0.49437139122891294, 0.5436220870288061, 0.6384513065831899, 0.6561214586808956, 0.6648924926501938]</t>
+          <t>[0.19756895371127578, 0.47496819826916825, 0.5047084318749009, 0.5711679237548372, 0.6404370692857475, 0.6675410977537132, 0.6876075735168549]</t>
         </is>
       </c>
       <c r="U35" t="n">
         <v>5</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6173375474817246</v>
+        <v>0.6302915622901746</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.032602</t>
         </is>
       </c>
     </row>
@@ -3655,34 +3655,34 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>[23, 195, 113, 26, 34, 137, 18]</t>
+          <t>[195, 23, 113, 34, 137, 26, 18]</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[0.9032771781847022, 0.9089207258395419, 1.0366749041253562, 1.122726700666571, 1.1236938261940563, 1.1349535949649323, 1.1568860884933378]</t>
+          <t>[0.9181304314287128, 0.9285342681431504, 1.0579955735045434, 1.1581080996747362, 1.1639304944238036, 1.1657143160160082, 1.1792476487820676]</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>[195, 200, 11, 87, 204, 99, 189]</t>
+          <t>[195, 200, 11, 87, 204, 99, 252]</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>[0.9089207258395419, 1.3096168843334115, 1.3275508386866792, 1.5908793720523329, 1.5990935014004302, 1.622294913574774, 1.629957840449113]</t>
+          <t>[0.9181304314287128, 1.3350509881208912, 1.3995616301348108, 1.6138328578287229, 1.6608070247088957, 1.6991839062193002, 1.7070581350360812]</t>
         </is>
       </c>
       <c r="U36" t="n">
         <v>5</v>
       </c>
       <c r="V36" t="n">
-        <v>1.129323710579494</v>
+        <v>1.164822405219906</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3691,7 +3691,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.032602</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>[79, 65, 93, 94, 175, 121, 80]</t>
+          <t>[79, 65, 93, 94, 175, 121, 12]</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3753,24 +3753,24 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[0.4070113027932198, 0.4726471420148391, 0.4829118325643496, 0.5094941398027188, 0.5939910816063874, 0.6370591790612015, 0.6802651643412381]</t>
+          <t>[0.42918053241565834, 0.48344327210122295, 0.48764516161175975, 0.5115821808729377, 0.5989142294953388, 0.6434734787789461, 0.6910858905335349]</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>[79, 93, 94, 121, 80, 132, 12]</t>
+          <t>[79, 93, 94, 121, 12, 80, 132]</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>[0.4070113027932198, 0.4829118325643496, 0.5094941398027188, 0.6370591790612015, 0.6802651643412381, 0.6891138765861146, 0.6892987283992659]</t>
+          <t>[0.42918053241565834, 0.48764516161175975, 0.5115821808729377, 0.6434734787789461, 0.6910858905335349, 0.6920476884095672, 0.6980613034299721]</t>
         </is>
       </c>
       <c r="U37" t="n">
         <v>5</v>
       </c>
       <c r="V37" t="n">
-        <v>0.6155251303337944</v>
+        <v>0.6211938541371425</v>
       </c>
       <c r="W37" t="n">
         <v>5</v>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.032602</t>
         </is>
       </c>
     </row>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[0.9426091053917415, 1.04451179021934, 1.1853450005512371, 1.1960576798710454, 1.415541094658351, 1.563934094868717, 1.580391598030535]</t>
+          <t>[0.971450401545699, 1.074640074031811, 1.186952630834861, 1.1979482812998925, 1.4296198762517993, 1.5690778551650242, 1.5873346497904075]</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -3855,14 +3855,14 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>[0.9426091053917415, 1.1853450005512371, 1.1960576798710454, 1.415541094658351, 1.563934094868717, 1.580391598030535, 1.6410228118581558]</t>
+          <t>[0.971450401545699, 1.186952630834861, 1.1979482812998925, 1.4296198762517993, 1.5690778551650242, 1.5873346497904075, 1.6544038847990568]</t>
         </is>
       </c>
       <c r="U38" t="n">
         <v>5</v>
       </c>
       <c r="V38" t="n">
-        <v>1.489737594763534</v>
+        <v>1.499348865708412</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3871,7 +3871,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -3923,34 +3923,34 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>[78, 2, 139, 144, 186, 218, 133]</t>
+          <t>[78, 2, 186, 139, 144, 218, 133]</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 1]</t>
+          <t>[1, 1, 0, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[0.5587223573308889, 0.791039377807072, 0.843654742228161, 0.8603664750912501, 0.861777183453274, 0.931892320846779, 0.9893290802630301]</t>
+          <t>[0.5603953567589891, 0.8447299750636207, 0.8847807359492844, 0.8880238026393963, 0.9113645928993578, 0.9812805851581737, 1.024094707256906]</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>[78, 2, 139, 144, 218, 133, 265]</t>
+          <t>[78, 2, 139, 144, 218, 133, 184]</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>[0.5587223573308889, 0.791039377807072, 0.843654742228161, 0.8603664750912501, 0.931892320846779, 0.9893290802630301, 1.0311628714246286]</t>
+          <t>[0.5603953567589891, 0.8447299750636207, 0.8880238026393963, 0.9113645928993578, 0.9812805851581737, 1.024094707256906, 1.0855335794899321]</t>
         </is>
       </c>
       <c r="U39" t="n">
         <v>5</v>
       </c>
       <c r="V39" t="n">
-        <v>0.8968347521500265</v>
+        <v>0.9463225890287658</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3959,7 +3959,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[0.7606850577828326, 0.8088749738207938, 0.8834346421851855, 0.8877265901470622, 0.9390618903976925, 0.9610487937348541, 0.9826547415496008]</t>
+          <t>[0.765611192163851, 0.8362680582799068, 0.9132802538826336, 0.9246073651965244, 0.9735771721574329, 0.9821824202652099, 1.0045195499917943]</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4031,14 +4031,14 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>[0.7606850577828326, 0.8088749738207938, 0.8877265901470622, 0.9390618903976925, 0.9610487937348541, 0.9826547415496008, 1.053144371590791]</t>
+          <t>[0.765611192163851, 0.8362680582799068, 0.9246073651965244, 0.9735771721574329, 0.9821824202652099, 1.0045195499917943, 1.0831903338783457]</t>
         </is>
       </c>
       <c r="U40" t="n">
         <v>5</v>
       </c>
       <c r="V40" t="n">
-        <v>0.9500553420662733</v>
+        <v>0.9778797962113214</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -4047,7 +4047,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>[73, 117, 212, 235, 12, 94, 121]</t>
+          <t>[73, 117, 212, 235, 12, 121, 94]</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -4109,24 +4109,24 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[0.5328955098782735, 0.6052035570839494, 0.616322926874974, 0.6168998563027631, 0.6400723224750732, 0.679899545091819, 0.6800458708267693]</t>
+          <t>[0.5342257942124597, 0.6083093566579445, 0.6185631202924585, 0.6236524444886162, 0.6405267864348283, 0.6826793710675878, 0.6833905965977358]</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>[117, 212, 12, 94, 121, 48, 143]</t>
+          <t>[117, 212, 12, 121, 94, 48, 132]</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>[0.6052035570839494, 0.616322926874974, 0.6400723224750732, 0.679899545091819, 0.6800458708267693, 0.6915129815073675, 0.7018485358630068]</t>
+          <t>[0.6083093566579445, 0.6185631202924585, 0.6405267864348283, 0.6826793710675878, 0.6833905965977358, 0.7038272496795165, 0.7187529981026506]</t>
         </is>
       </c>
       <c r="U41" t="n">
         <v>5</v>
       </c>
       <c r="V41" t="n">
-        <v>0.6599859337834462</v>
+        <v>0.6616030787512081</v>
       </c>
       <c r="W41" t="n">
         <v>6</v>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[0.8235094669300224, 0.9050961123304854, 1.0026447861907386, 1.0388968315459377, 1.1830498478147624, 1.2578377942645116, 1.312394619241736]</t>
+          <t>[0.8466337409387247, 0.9382446961642759, 1.0488252146054582, 1.0918060201554602, 1.2141778546631932, 1.3095686710797223, 1.3219540469820086]</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -4211,14 +4211,14 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>[0.8235094669300224, 0.9050961123304854, 1.312394619241736, 1.439746259402487, 1.495035251975794, 1.5633463379229817, 1.5822452488364709]</t>
+          <t>[0.8466337409387247, 0.9382446961642759, 1.3219540469820086, 1.5177117159875857, 1.5682620231631885, 1.6449807285617135, 1.6759845023463882]</t>
         </is>
       </c>
       <c r="U42" t="n">
         <v>5</v>
       </c>
       <c r="V42" t="n">
-        <v>1.220443821039637</v>
+        <v>1.261873262871458</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -4227,7 +4227,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -4279,17 +4279,17 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>[120, 106, 230, 97, 123, 212, 126]</t>
+          <t>[120, 106, 230, 97, 212, 123, 126]</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 1, 1]</t>
+          <t>[1, 1, 1, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[0.47019900669057246, 0.6651678118517115, 0.7693838751920083, 0.8065415898682032, 0.811528985859164, 0.8118848671453419, 0.89447023192938]</t>
+          <t>[0.47812745500997467, 0.7019417851786818, 0.8111790931817326, 0.8175012602835887, 0.8201809946795475, 0.8279511810954874, 0.8976175058075762]</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4299,14 +4299,14 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>[0.47019900669057246, 0.6651678118517115, 0.7693838751920083, 0.8118848671453419, 0.89447023192938, 0.9196266504468654, 0.9575060426380428]</t>
+          <t>[0.47812745500997467, 0.7019417851786818, 0.8111790931817326, 0.8201809946795475, 0.8976175058075762, 0.9248580903204343, 0.9939560755155433]</t>
         </is>
       </c>
       <c r="U43" t="n">
         <v>5</v>
       </c>
       <c r="V43" t="n">
-        <v>0.811706926502253</v>
+        <v>0.8240660878875175</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4315,7 +4315,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L44" t="n">
         <v>0.8631205685666311</v>
@@ -4377,24 +4377,24 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[0.9089207258395419, 0.9259552402925781, 1.2117067856418309, 1.3413421873546258, 1.3416429433123038, 1.3704053006498502, 1.411798661575995]</t>
+          <t>[0.9181304314287128, 0.9814860883963605, 1.2341348317921002, 1.3743726908715235, 1.3826679515730542, 1.401241514755124, 1.4431576009114175]</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>[172, 11, 189, 200, 204, 99, 247]</t>
+          <t>[172, 11, 200, 189, 204, 247, 99]</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>[0.9089207258395419, 0.9259552402925781, 1.439746259402487, 1.4517798484698423, 1.57156501312865, 1.647604906549781, 1.654298906363991]</t>
+          <t>[0.9181304314287128, 0.9814860883963605, 1.4857013337515985, 1.5177117159875857, 1.617935230337548, 1.692483229107535, 1.6946735133992439]</t>
         </is>
       </c>
       <c r="U44" t="n">
         <v>5</v>
       </c>
       <c r="V44" t="n">
-        <v>1.356024121981077</v>
+        <v>1.391954733164089</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4403,7 +4403,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -4455,17 +4455,17 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>[0, 175, 37, 127, 16, 178, 155]</t>
+          <t>[0, 175, 127, 37, 178, 16, 70]</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[0.6387641959414919, 0.9954171446370441, 1.0743530770683147, 1.0842135456082187, 1.1402445731212643, 1.1491707301225156, 1.2013034450591198]</t>
+          <t>[0.6404309321984378, 0.9995339793160453, 1.0858165923030816, 1.0877762348567592, 1.155952568575654, 1.1623682899852883, 1.2271716966077044]</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -4475,14 +4475,14 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>[0.6387641959414919, 1.0842135456082187, 1.2653452789599824, 1.2967317839748311, 1.3148908217228072, 1.3231578765392262, 1.3404113029978348]</t>
+          <t>[0.6404309321984378, 1.0858165923030816, 1.2768877244792216, 1.299372833731694, 1.3190959573952314, 1.3332644367277169, 1.3500441141345716]</t>
         </is>
       </c>
       <c r="U45" t="n">
         <v>5</v>
       </c>
       <c r="V45" t="n">
-        <v>1.14470765162189</v>
+        <v>1.159160429280471</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>[55, 264, 150, 25, 237, 141, 153]</t>
+          <t>[55, 264, 150, 25, 237, 153, 141]</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -4553,24 +4553,24 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[0.34704442425232157, 0.3593497604850924, 0.3904925509665907, 0.445679646267563, 0.4601009190663784, 0.47189776860639926, 0.47667520376159217]</t>
+          <t>[0.3607957552460981, 0.3681309920626425, 0.40256777134442157, 0.4618987474621375, 0.4754529228823048, 0.4823679577014703, 0.4932843917097161]</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>[218, 87, 143, 106, 204, 247, 265]</t>
+          <t>[218, 87, 143, 106, 247, 204, 265]</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>[1.0087935022705987, 1.0467763233944603, 1.1192799875185335, 1.126673030190424, 1.1286294571854771, 1.1545013956802495, 1.2016398340054446]</t>
+          <t>[1.02730888757368, 1.0725808805586583, 1.1373025572835467, 1.152546640223148, 1.1705414917582162, 1.1809012286208487, 1.221936120939305]</t>
         </is>
       </c>
       <c r="U46" t="n">
         <v>5</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4659993438363889</v>
+        <v>0.4789104402918876</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4579,7 +4579,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>[201, 96, 194, 62, 88, 25, 154]</t>
+          <t>[201, 96, 194, 62, 88, 40, 154]</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -4641,24 +4641,24 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[0.3978820310339181, 0.6983622174023782, 0.6993587281379978, 0.7189381520928867, 0.8109884319368614, 0.839021710737751, 0.8397316084287707]</t>
+          <t>[0.41335534715969197, 0.7120121754045903, 0.7278738063138257, 0.731529999486306, 0.830318660718897, 0.8530314470140158, 0.8667958357660348]</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>[189, 200, 11, 252, 106, 195, 247]</t>
+          <t>[189, 200, 11, 252, 106, 247, 195]</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>[0.9050961123304854, 1.1286294571854771, 1.1993060458901301, 1.4858738032106755, 1.5260897290746545, 1.57156501312865, 1.5860647498557974]</t>
+          <t>[0.9382446961642759, 1.1809012286208487, 1.2240942780506507, 1.529608428820615, 1.5736822122890644, 1.6117097253328765, 1.617935230337548]</t>
         </is>
       </c>
       <c r="U47" t="n">
         <v>5</v>
       </c>
       <c r="V47" t="n">
-        <v>0.8250050713373063</v>
+        <v>0.8416750538664564</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -4729,24 +4729,24 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[0.6843351028833651, 0.7076574140177881, 0.7800591901816304, 0.8171860865955285, 0.8263600423088694, 0.8412365183531852, 0.9610487937348541]</t>
+          <t>[0.688106682540607, 0.710111082590473, 0.7938885910397881, 0.8413378589226892, 0.8615586699981741, 0.8634435121523507, 0.9821824202652099]</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>[144, 139, 2, 79, 233, 184, 72]</t>
+          <t>[144, 139, 2, 79, 233, 184, 226]</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>[0.6843351028833651, 0.7076574140177881, 0.7800591901816304, 0.8263600423088694, 0.8412365183531852, 0.9610487937348541, 1.000732223426086]</t>
+          <t>[0.688106682540607, 0.710111082590473, 0.7938885910397881, 0.8615586699981741, 0.8634435121523507, 0.9821824202652099, 1.0176368738286712]</t>
         </is>
       </c>
       <c r="U48" t="n">
         <v>5</v>
       </c>
       <c r="V48" t="n">
-        <v>0.8337982803310273</v>
+        <v>0.8625010910752624</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
@@ -4755,7 +4755,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>[0.5337835415608952, 0.630840775788682, 0.653853904099133, 0.6710357058744811, 0.6918642887756976, 0.7134382723982694, 0.7838350960653794]</t>
+          <t>[0.5425353231907916, 0.6311903647734708, 0.6763937777570282, 0.6846016513489056, 0.6969231173694684, 0.7234340213355976, 0.7911561932119732]</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -4827,14 +4827,14 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>[0.5337835415608952, 0.630840775788682, 0.7134382723982694, 0.7838350960653794, 0.9390618903976925, 0.9475331886227933, 0.9793652761263791]</t>
+          <t>[0.5425353231907916, 0.6311903647734708, 0.7234340213355976, 0.7911561932119732, 0.9735771721574329, 0.979981664923902, 0.9868278763704473]</t>
         </is>
       </c>
       <c r="U49" t="n">
         <v>5</v>
       </c>
       <c r="V49" t="n">
-        <v>0.7026512805869836</v>
+        <v>0.7101785693525331</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -4895,7 +4895,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>[53, 126, 17, 133, 226, 144, 139]</t>
+          <t>[53, 126, 17, 133, 144, 139, 226]</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -4905,24 +4905,24 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>[0.7812625915442334, 0.7880411567528586, 0.8008417517510675, 0.8791051000607641, 0.8853337208428553, 0.8948503806578592, 0.902439585248186]</t>
+          <t>[0.7943349714766625, 0.8162798283873167, 0.8273520957500429, 0.8863426856377493, 0.9017487313201756, 0.9060002173570764, 0.9150600455495205]</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>[53, 126, 17, 133, 226, 144, 139]</t>
+          <t>[53, 126, 17, 133, 144, 139, 226]</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>[0.7812625915442334, 0.7880411567528586, 0.8008417517510675, 0.8791051000607641, 0.8853337208428553, 0.8948503806578592, 0.902439585248186]</t>
+          <t>[0.7943349714766625, 0.8162798283873167, 0.8273520957500429, 0.8863426856377493, 0.9017487313201756, 0.9060002173570764, 0.9150600455495205]</t>
         </is>
       </c>
       <c r="U50" t="n">
         <v>5</v>
       </c>
       <c r="V50" t="n">
-        <v>0.8900920507503572</v>
+        <v>0.903874474338626</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
@@ -4931,7 +4931,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>[0.31314810459945935, 0.38716724561704224, 0.39517583229122516, 0.4166264900685981, 0.47853636685918244, 0.4949350617566031, 0.5158762938484103]</t>
+          <t>[0.3165340624192976, 0.3939440061621531, 0.396968059151611, 0.4183266584079032, 0.48874534711789264, 0.5056711408954266, 0.5285094283492562]</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -5003,14 +5003,14 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>[0.4166264900685981, 0.4949350617566031, 0.5158762938484103, 0.570004668379788, 0.5827742546441335, 0.6104328568560324, 0.616322926874974]</t>
+          <t>[0.4183266584079032, 0.5056711408954266, 0.5285094283492562, 0.5703838265474865, 0.589451538054015, 0.6126286989625115, 0.6185631202924585]</t>
         </is>
       </c>
       <c r="U51" t="n">
         <v>5</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4867357143078928</v>
+        <v>0.4972082440066596</v>
       </c>
       <c r="W51" t="n">
         <v>2</v>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>[122, 132, 12, 265, 127, 143, 72]</t>
+          <t>[122, 132, 12, 265, 143, 127, 72]</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -5085,24 +5085,24 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>[0.4522700956677568, 0.6565069825338506, 0.7148385205024039, 0.792126311233567, 0.8921778683529974, 0.9093140984493321, 0.9148233158172774]</t>
+          <t>[0.4586685435306861, 0.6648289321492056, 0.7337668677994603, 0.7988965191324714, 0.9171592069728961, 0.920285950926564, 0.9218617090123212]</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>[122, 132, 12, 265, 127, 143, 72]</t>
+          <t>[122, 132, 12, 265, 143, 127, 72]</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>[0.4522700956677568, 0.6565069825338506, 0.7148385205024039, 0.792126311233567, 0.8921778683529974, 0.9093140984493321, 0.9148233158172774]</t>
+          <t>[0.4586685435306861, 0.6648289321492056, 0.7337668677994603, 0.7988965191324714, 0.9171592069728961, 0.920285950926564, 0.9218617090123212]</t>
         </is>
       </c>
       <c r="U52" t="n">
         <v>5</v>
       </c>
       <c r="V52" t="n">
-        <v>0.9007459834011647</v>
+        <v>0.91872257894973</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
@@ -5111,7 +5111,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>[265, 44, 143, 133, 144, 247, 17]</t>
+          <t>[44, 265, 133, 143, 144, 247, 17]</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -5173,24 +5173,24 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>[0.38715182616312704, 0.38838433182150356, 0.44925644928720576, 0.4539118164541998, 0.6798033574158324, 0.6955644693824967, 0.6979605226257983]</t>
+          <t>[0.39095401051573214, 0.3952863319699243, 0.46590297415373, 0.4745794023283218, 0.6876075735168549, 0.6971440392653372, 0.7050565992659034]</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>[265, 44, 143, 133, 144, 247, 17]</t>
+          <t>[44, 265, 133, 143, 144, 247, 17]</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>[0.38715182616312704, 0.38838433182150356, 0.44925644928720576, 0.4539118164541998, 0.6798033574158324, 0.6955644693824967, 0.6979605226257983]</t>
+          <t>[0.39095401051573214, 0.3952863319699243, 0.46590297415373, 0.4745794023283218, 0.6876075735168549, 0.6971440392653372, 0.7050565992659034]</t>
         </is>
       </c>
       <c r="U53" t="n">
         <v>5</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6876839133991646</v>
+        <v>0.6923758063910961</v>
       </c>
       <c r="W53" t="n">
         <v>0</v>
@@ -5199,7 +5199,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>[17, 233, 232, 244, 209, 117, 43]</t>
+          <t>[17, 233, 232, 209, 244, 117, 43]</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -5261,24 +5261,24 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>[0.21286173804405556, 0.34296891237613225, 0.36449671454209764, 0.531608783136456, 0.5337835415608952, 0.5956796300272117, 0.6011385508007127]</t>
+          <t>[0.21443304078111106, 0.3461611340488398, 0.3653168406770823, 0.5425353231907916, 0.5445391794814306, 0.6088107110332943, 0.6372052907809359]</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>[17, 233, 244, 209, 117, 44, 144]</t>
+          <t>[17, 233, 209, 244, 117, 44, 2]</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>[0.21286173804405556, 0.34296891237613225, 0.531608783136456, 0.5337835415608952, 0.5956796300272117, 0.6355550426676103, 0.7261925403951454]</t>
+          <t>[0.21443304078111106, 0.3461611340488398, 0.5425353231907916, 0.5445391794814306, 0.6088107110332943, 0.6400066382443761, 0.7373122263029368]</t>
         </is>
       </c>
       <c r="U54" t="n">
         <v>5</v>
       </c>
       <c r="V54" t="n">
-        <v>0.5647315857940535</v>
+        <v>0.5766749452573625</v>
       </c>
       <c r="W54" t="n">
         <v>4</v>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>[0.33448494520284394, 0.4040372859588888, 0.4707701001400842, 0.49545337182457866, 0.5254491134421377, 0.5298811627972123, 0.5780993205372317]</t>
+          <t>[0.3441411080174952, 0.4193002108376557, 0.4761108863753461, 0.5024139570367484, 0.5325482073352571, 0.5471136191033614, 0.5951465310870481]</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5363,14 +5363,14 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>[0.4707701001400842, 0.640203047878593, 0.6855331996029372, 0.7077805252278603, 0.7291085101463568, 0.7646381578803068, 0.7815709793642637]</t>
+          <t>[0.4761108863753461, 0.6617826919186229, 0.691188568680648, 0.7120782987110547, 0.7511474090696254, 0.7874731966815763, 0.8103828987478885]</t>
         </is>
       </c>
       <c r="U55" t="n">
         <v>5</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5276651381196751</v>
+        <v>0.5398309132193093</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
@@ -5379,7 +5379,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>[133, 106, 126, 192, 44, 218, 265]</t>
+          <t>[133, 106, 126, 44, 192, 218, 265]</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -5441,24 +5441,24 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>[0.46078203943864127, 0.6050685899198321, 0.6597257565729355, 0.7693838751920083, 0.797667967003796, 0.8096221373548131, 0.8251950389081546]</t>
+          <t>[0.4662526404851085, 0.6140279712250841, 0.6848812304188718, 0.8109482905877532, 0.8111790931817326, 0.8245772149154801, 0.8370751172254997]</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>[133, 106, 126, 192, 44, 218, 265]</t>
+          <t>[133, 106, 126, 44, 192, 218, 265]</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>[0.46078203943864127, 0.6050685899198321, 0.6597257565729355, 0.7693838751920083, 0.797667967003796, 0.8096221373548131, 0.8251950389081546]</t>
+          <t>[0.4662526404851085, 0.6140279712250841, 0.6848812304188718, 0.8109482905877532, 0.8111790931817326, 0.8245772149154801, 0.8370751172254997]</t>
         </is>
       </c>
       <c r="U56" t="n">
         <v>5</v>
       </c>
       <c r="V56" t="n">
-        <v>0.8036450521793046</v>
+        <v>0.8178781540486064</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
@@ -5467,7 +5467,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>[232, 117, 226, 17, 43, 144, 79]</t>
+          <t>[232, 117, 226, 17, 43, 79, 144]</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -5529,24 +5529,24 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>[0.20055978101723154, 0.3177318165866338, 0.34296891237613225, 0.3709974238219604, 0.48870655221188736, 0.5436220870288061, 0.5630099132733398]</t>
+          <t>[0.20304438123983845, 0.3290674918494026, 0.3461611340488398, 0.37657968023864064, 0.5179137050231546, 0.5652713170144583, 0.5711679237548372]</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>[117, 226, 17, 144, 79, 2, 94]</t>
+          <t>[117, 226, 17, 79, 144, 2, 94]</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>[0.3177318165866338, 0.34296891237613225, 0.3709974238219604, 0.5436220870288061, 0.5630099132733398, 0.5943176150122738, 0.6074489560139795]</t>
+          <t>[0.3290674918494026, 0.3461611340488398, 0.37657968023864064, 0.5652713170144583, 0.5711679237548372, 0.6176497476569909, 0.6369076215994106]</t>
         </is>
       </c>
       <c r="U57" t="n">
         <v>5</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5161643196203467</v>
+        <v>0.5415925110188065</v>
       </c>
       <c r="W57" t="n">
         <v>1</v>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>[219, 17, 226, 211, 44, 209, 232]</t>
+          <t>[219, 17, 226, 211, 209, 44, 232]</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -5621,24 +5621,24 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>[0.461634960511693, 0.5257178756940794, 0.531608783136456, 0.5664120265533512, 0.6096387045696878, 0.630840775788682, 0.6541756211389272]</t>
+          <t>[0.47268265765861894, 0.5441757905247957, 0.5445391794814306, 0.5994042617493563, 0.6311903647734708, 0.631573533497182, 0.6624712540055496]</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>[17, 226, 44, 209, 233, 117, 131]</t>
+          <t>[17, 226, 209, 44, 233, 117, 143]</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>[0.5257178756940794, 0.531608783136456, 0.6096387045696878, 0.630840775788682, 0.665466016309373, 0.7018691761430401, 0.7495499914249298]</t>
+          <t>[0.5441757905247957, 0.5445391794814306, 0.6311903647734708, 0.631573533497182, 0.6774662700661319, 0.7139910995384647, 0.7593445165581392]</t>
         </is>
       </c>
       <c r="U58" t="n">
         <v>5</v>
       </c>
       <c r="V58" t="n">
-        <v>0.6202397401791849</v>
+        <v>0.6313819491353264</v>
       </c>
       <c r="W58" t="n">
         <v>1</v>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -5703,34 +5703,34 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>[44, 53, 193, 242, 114, 218, 133]</t>
+          <t>[44, 53, 193, 242, 218, 114, 133]</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 1, 1]</t>
+          <t>[1, 1, 0, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>[0.5582900753595698, 0.5800420025624597, 0.584939587507794, 0.6584829768617618, 0.692663068434454, 0.6955644693824967, 0.7145926397762693]</t>
+          <t>[0.5657425911008691, 0.5919153154566646, 0.6078585757245677, 0.6697150610460071, 0.6971440392653372, 0.707331187640878, 0.7240994036383327]</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>[44, 53, 218, 133, 106, 244, 17]</t>
+          <t>[44, 53, 218, 133, 106, 17, 230]</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>[0.5582900753595698, 0.5800420025624597, 0.6955644693824967, 0.7145926397762693, 0.8603127364190305, 0.9432699498127094, 0.9481781108499746]</t>
+          <t>[0.5657425911008691, 0.5919153154566646, 0.6971440392653372, 0.7240994036383327, 0.8662635332632745, 0.9593977171596306, 0.9662673372395373]</t>
         </is>
       </c>
       <c r="U59" t="n">
         <v>5</v>
       </c>
       <c r="V59" t="n">
-        <v>0.6941137689084753</v>
+        <v>0.7022376134531076</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
@@ -5739,7 +5739,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>[106, 182, 192, 62, 230, 214, 120]</t>
+          <t>[106, 182, 192, 62, 230, 214, 133]</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -5801,24 +5801,24 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>[0.6776445358220735, 0.9426091053917415, 0.9575060426380428, 0.9768333478133993, 1.0910715494181273, 1.153743930664675, 1.3038853647278752]</t>
+          <t>[0.6795245197738405, 0.971450401545699, 0.9939560755155433, 1.0032414089083304, 1.0940184109181272, 1.1663647566011117, 1.3383365142726742]</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>[106, 182, 192, 230, 214, 120, 133]</t>
+          <t>[106, 182, 192, 230, 214, 133, 120]</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>[0.6776445358220735, 0.9426091053917415, 0.9575060426380428, 1.0910715494181273, 1.153743930664675, 1.3038853647278752, 1.3380355246495848]</t>
+          <t>[0.6795245197738405, 0.971450401545699, 0.9939560755155433, 1.0940184109181272, 1.1663647566011117, 1.3383365142726742, 1.3453080485469922]</t>
         </is>
       </c>
       <c r="U60" t="n">
         <v>5</v>
       </c>
       <c r="V60" t="n">
-        <v>1.122407740041401</v>
+        <v>1.130191583759619</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
@@ -5827,7 +5827,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -5879,34 +5879,34 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>[42, 15, 224, 164, 13, 194, 172]</t>
+          <t>[42, 15, 224, 164, 172, 13, 266]</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>[1.0592190030198085, 1.7677311898814185, 2.266825139449731, 2.281206895468299, 2.546720614813414, 2.5521550724405087, 2.5589419117001655]</t>
+          <t>[1.0730575598008198, 1.7916207047683483, 2.283094849943119, 2.3130534459016108, 2.5663054700260814, 2.5683968301285045, 2.592087322359432]</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>[172, 195, 252, 204, 182, 106, 189]</t>
+          <t>[172, 195, 252, 204, 182, 106, 192]</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>[2.5589419117001655, 2.68455720444761, 2.7666995118698123, 2.864266155277007, 2.9178908709633653, 3.0048907342125535, 3.0505120894095747]</t>
+          <t>[2.5663054700260814, 2.7037856897391905, 2.8062586949506265, 2.9267423995391004, 2.949109411970761, 3.0355882864898738, 3.1264533420670033]</t>
         </is>
       </c>
       <c r="U61" t="n">
         <v>5</v>
       </c>
       <c r="V61" t="n">
-        <v>2.549437843626961</v>
+        <v>2.567351150077293</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
@@ -5915,7 +5915,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>[143, 218, 72, 144, 122, 139, 117]</t>
+          <t>[143, 218, 72, 144, 122, 139, 133]</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -5977,24 +5977,24 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>[0.3255402906817581, 0.38715182616312704, 0.46809466903819835, 0.49437139122891294, 0.511835017063156, 0.5144145369135803, 0.5694241184505194]</t>
+          <t>[0.34001829560092095, 0.3952863319699243, 0.474713081092318, 0.5047084318749009, 0.5171409073105397, 0.5329711500581856, 0.5875827307833502]</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>[143, 218, 72, 144, 122, 139, 117]</t>
+          <t>[143, 218, 72, 144, 122, 139, 133]</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>[0.3255402906817581, 0.38715182616312704, 0.46809466903819835, 0.49437139122891294, 0.511835017063156, 0.5144145369135803, 0.5694241184505194]</t>
+          <t>[0.34001829560092095, 0.3952863319699243, 0.474713081092318, 0.5047084318749009, 0.5171409073105397, 0.5329711500581856, 0.5875827307833502]</t>
         </is>
       </c>
       <c r="U62" t="n">
         <v>5</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5131247769883682</v>
+        <v>0.5250560286843626</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
@@ -6003,7 +6003,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:48.411260</t>
+          <t>2025-11-16T17:30:43.033396</t>
         </is>
       </c>
     </row>
